--- a/graphs2.xlsx
+++ b/graphs2.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="18195" windowHeight="6990" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="18195" windowHeight="6990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="4" r:id="rId1"/>
     <sheet name="Chart2" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Chart3" sheetId="6" r:id="rId3"/>
+    <sheet name="Chart4" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -618,11 +618,589 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Connection Chance vs. Connection Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="57150">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$16:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.96108099999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96108099999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96108099999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96064499999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95055599999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92775600000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90633200000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88953199999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87185199999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84157300000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.80335199999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.76340200000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.72825799999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.69864599999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.67236799999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.64793199999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="160957568"/>
+        <c:axId val="160959104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="160957568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Connection Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="160959104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="160959104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Connection Chance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="160957568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Utilization</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> vs. Connection Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="57150">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$16:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.1209E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9738999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17952899999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26868799999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35505900000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43232199999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50679200000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58041399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65056800000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.70640999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.74905100000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78293999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.81513599999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.845665</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.87412800000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.90242100000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="187454976"/>
+        <c:axId val="187456512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="187454976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Connection Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="187456512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="187456512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Utilization</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="187454976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="71" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="78" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -633,7 +1211,29 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="71" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="78" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="78" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -668,6 +1268,60 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8670192" cy="6288942"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8670192" cy="6288942"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -981,10 +1635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C16" activeCellId="1" sqref="A16:A31 C16:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,31 +1802,183 @@
         <v>0.222751</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>0.96108099999999996</v>
+      </c>
+      <c r="C16">
+        <v>1.1209E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>0.96108099999999996</v>
+      </c>
+      <c r="C17">
+        <v>8.9738999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.96108099999999996</v>
+      </c>
+      <c r="C18">
+        <v>0.17952899999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.96064499999999997</v>
+      </c>
+      <c r="C19">
+        <v>0.26868799999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>0.95055599999999996</v>
+      </c>
+      <c r="C20">
+        <v>0.35505900000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>0.92775600000000003</v>
+      </c>
+      <c r="C21">
+        <v>0.43232199999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>48</v>
+      </c>
+      <c r="B22">
+        <v>0.90633200000000003</v>
+      </c>
+      <c r="C22">
+        <v>0.50679200000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>56</v>
+      </c>
+      <c r="B23">
+        <v>0.88953199999999999</v>
+      </c>
+      <c r="C23">
+        <v>0.58041399999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>64</v>
+      </c>
+      <c r="B24">
+        <v>0.87185199999999996</v>
+      </c>
+      <c r="C24">
+        <v>0.65056800000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>72</v>
+      </c>
+      <c r="B25">
+        <v>0.84157300000000002</v>
+      </c>
+      <c r="C25">
+        <v>0.70640999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>80</v>
+      </c>
+      <c r="B26">
+        <v>0.80335199999999996</v>
+      </c>
+      <c r="C26">
+        <v>0.74905100000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>88</v>
+      </c>
+      <c r="B27">
+        <v>0.76340200000000003</v>
+      </c>
+      <c r="C27">
+        <v>0.78293999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>96</v>
+      </c>
+      <c r="B28">
+        <v>0.72825799999999996</v>
+      </c>
+      <c r="C28">
+        <v>0.81513599999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>104</v>
+      </c>
+      <c r="B29">
+        <v>0.69864599999999999</v>
+      </c>
+      <c r="C29">
+        <v>0.845665</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>112</v>
+      </c>
+      <c r="B30">
+        <v>0.67236799999999997</v>
+      </c>
+      <c r="C30">
+        <v>0.87412800000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>120</v>
+      </c>
+      <c r="B31">
+        <v>0.64793199999999995</v>
+      </c>
+      <c r="C31">
+        <v>0.90242100000000003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>